--- a/biology/Botanique/Surcenage/Surcenage.xlsx
+++ b/biology/Botanique/Surcenage/Surcenage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le surcenage est un terme très localisé  en Lorraine dans le Massif vosgien pour désigner le défrichement par l'annélation[1]. 
-On emploie des termes différents suivant les régions francophones concernées. Sont attestés par exemple les mots :  dessévage, ceinturage, cerclage ou surcenage [2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le surcenage est un terme très localisé  en Lorraine dans le Massif vosgien pour désigner le défrichement par l'annélation. 
+On emploie des termes différents suivant les régions francophones concernées. Sont attestés par exemple les mots :  dessévage, ceinturage, cerclage ou surcenage . 
 Le surcenage présente l'avantage d'être moins laborieux que l'essartage classique puisque l'on ne procède pas à l'arrachage des souches. Les arbres meurent sur pied. En revanche, il a l'inconvénient non négligeable d'être très long. C'est pourquoi, les chaumistes pratiquaient le surcenage pour agrandir leur surface d'alpage en le planifiant quelques mois, voire quelques années plus tôt. 
-La pratique du surcenage, défrichement par incision des arbres est ainsi pratiquée soit pour en extraire clandestinement la résine destinée à fabriquer la poix soit pour enlever l'écorce de manière à faire périr l'arbre sur pied. Cet usage a donné son nom à maints lieux dits du massif vosgien notamment dans la région de Gérardmer et de Gerbépal : col du Surceneux,  la Surcenée,  Les Surceneux, le Cerceneux, le lieu-dit étant par ailleurs souvent assorti d'un patronyme pour le distinguer des autres[3]  
-Une  forme apparentée existe dans le Nord-Est de l’Italie en  frioulan  avec les verbes cercinâ ou circinâ [4] ou  dans le Val de Fascia dans le  Trentin-Haut-Adige en haut-fascian avec la forme cercenèr[5]. Dans les deux cas, ils ont le même sens et le même usage qu’en vosgien[6].
+La pratique du surcenage, défrichement par incision des arbres est ainsi pratiquée soit pour en extraire clandestinement la résine destinée à fabriquer la poix soit pour enlever l'écorce de manière à faire périr l'arbre sur pied. Cet usage a donné son nom à maints lieux dits du massif vosgien notamment dans la région de Gérardmer et de Gerbépal : col du Surceneux,  la Surcenée,  Les Surceneux, le Cerceneux, le lieu-dit étant par ailleurs souvent assorti d'un patronyme pour le distinguer des autres  
+Une  forme apparentée existe dans le Nord-Est de l’Italie en  frioulan  avec les verbes cercinâ ou circinâ  ou  dans le Val de Fascia dans le  Trentin-Haut-Adige en haut-fascian avec la forme cercenèr. Dans les deux cas, ils ont le même sens et le même usage qu’en vosgien.
 </t>
         </is>
       </c>
